--- a/backend/uploads/ExtractedFiles/08.01.24/1250.xlsx
+++ b/backend/uploads/ExtractedFiles/08.01.24/1250.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="12">
   <si>
     <t>Emp_code</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>HH</t>
+  </si>
+  <si>
+    <t>XA</t>
   </si>
 </sst>
 </file>
@@ -419,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -798,6 +801,167 @@
         <v>9.4</v>
       </c>
     </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>1250</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45310</v>
+      </c>
+      <c r="D17" s="2">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="E17" s="2">
+        <v>16.28</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="2">
+        <v>6.41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>1250</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1">
+        <v>45311</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>1250</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1">
+        <v>45312</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>1250</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1">
+        <v>45313</v>
+      </c>
+      <c r="D20" s="2">
+        <v>9.33</v>
+      </c>
+      <c r="E20" s="2">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="2">
+        <v>10.07</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>1250</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1">
+        <v>45314</v>
+      </c>
+      <c r="D21" s="2">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="E21" s="2">
+        <v>18.239999999999998</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="2">
+        <v>8.4600000000000009</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>1250</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1">
+        <v>45315</v>
+      </c>
+      <c r="D22" s="2">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="E22" s="2">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="2">
+        <v>9.06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>1250</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1">
+        <v>45316</v>
+      </c>
+      <c r="D23" s="2">
+        <v>9.16</v>
+      </c>
+      <c r="E23" s="2">
+        <v>18.489999999999998</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="2">
+        <v>9.33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
